--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>416892.1363163483</v>
+        <v>436343.4828038227</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2589789.105914735</v>
+        <v>925399.3994514379</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19958284.28136534</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4840571.114000474</v>
+        <v>5670696.135514803</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>44.13217237922859</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44.13217237922859</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>140.3787069980184</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -908,16 +908,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>26.92232807701203</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>44.13217237922859</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,31 +972,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>44.13217237922859</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>84.41950480310361</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J7" t="n">
-        <v>19.9316902659215</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1096,10 +1096,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="F8" t="n">
-        <v>26.92232807701203</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1212,16 +1212,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>38.87161743162454</v>
+        <v>79.65980772525465</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.9316902659215</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.13217237922859</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.13217237922859</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,22 +1415,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1452,22 +1452,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>111.8536456712464</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>19.9316902659215</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>38.87161743162455</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>44.13217237922859</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1689,22 +1689,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>121.9551940726745</v>
       </c>
       <c r="E15" t="n">
-        <v>38.87161743162455</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>44.13217237922859</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>44.13217237922859</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1774,22 +1774,22 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>190.3453970742848</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1926,25 +1926,25 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1974,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>186.2783301735246</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="I20" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,19 +2123,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2160,28 +2160,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>121.2086027464166</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>98.10479885422592</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>190.3453970742849</v>
       </c>
     </row>
     <row r="24">
@@ -2406,16 +2406,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>50.05769526855297</v>
+        <v>150.9608827844484</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>50.46697834767978</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,31 +2597,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>114.2906915452287</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2688,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -2846,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>50.46697834767995</v>
       </c>
       <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>152.4866879822865</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,22 +2919,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>158.5778536060453</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3029,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -3080,19 +3080,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,16 +3108,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>40.61938961819902</v>
       </c>
       <c r="U33" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3202,55 +3202,55 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3272,16 +3272,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3308,28 +3308,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>95.41011056435583</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3500,76 +3500,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>45.27093583804409</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>89.98138655216526</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>241.0142888776591</v>
@@ -3755,13 +3755,13 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>50.46697834767978</v>
       </c>
     </row>
     <row r="42">
@@ -3819,13 +3819,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>25.41554245318292</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3898,16 +3898,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,22 +4022,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>44.13217237922859</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,31 +4053,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>16.09920764631581</v>
       </c>
       <c r="D45" t="n">
-        <v>44.13217237922859</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>38.87161743162455</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>121.8591222504766</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>121.8591222504766</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>121.8591222504766</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U2" t="n">
-        <v>121.8591222504766</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V2" t="n">
-        <v>121.8591222504766</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W2" t="n">
-        <v>92.68647758675968</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X2" t="n">
-        <v>48.10852568854899</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.5286895169144</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C3" t="n">
-        <v>176.5286895169144</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D3" t="n">
-        <v>176.5286895169144</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>176.5286895169144</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>138.0185621377561</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>93.44061023954541</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>48.8626583413347</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>47.22142444577459</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>47.22142444577459</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>176.5286895169144</v>
+        <v>345.4870131375847</v>
       </c>
       <c r="V3" t="n">
-        <v>176.5286895169144</v>
+        <v>110.334904905842</v>
       </c>
       <c r="W3" t="n">
-        <v>176.5286895169144</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X3" t="n">
-        <v>176.5286895169144</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.5286895169144</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>4.329008585976936</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>131.9507376187037</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C5" t="n">
-        <v>131.9507376187037</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D5" t="n">
-        <v>131.9507376187037</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E5" t="n">
-        <v>131.9507376187037</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F5" t="n">
-        <v>131.9507376187037</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G5" t="n">
-        <v>104.756466833843</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H5" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W5" t="n">
-        <v>176.5286895169144</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X5" t="n">
-        <v>176.5286895169144</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y5" t="n">
-        <v>131.9507376187037</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176.5286895169144</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="C6" t="n">
-        <v>176.5286895169144</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="D6" t="n">
-        <v>131.9507376187037</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>87.37278572049297</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>42.79483382228227</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>3.530573790338288</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>45.45613755060546</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>878.7849284367942</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>635.3361517926941</v>
       </c>
       <c r="X6" t="n">
-        <v>176.5286895169144</v>
+        <v>427.4846515871612</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.5286895169144</v>
+        <v>427.4846515871612</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
-        <v>46.15803044872652</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>26.02500997809875</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>135.3139342451479</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.73598234693722</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E8" t="n">
-        <v>176.5286895169144</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="F8" t="n">
-        <v>149.3344187320537</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G8" t="n">
-        <v>104.756466833843</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H8" t="n">
-        <v>60.17851493563234</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>15.60056303742164</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>90.91227510121089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.530573790338288</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C9" t="n">
-        <v>3.530573790338288</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D9" t="n">
-        <v>3.530573790338288</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E9" t="n">
-        <v>3.530573790338288</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>132.8378388614781</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>42.79483382228227</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>3.530573790338288</v>
+        <v>883.5927032629043</v>
       </c>
       <c r="V9" t="n">
-        <v>3.530573790338288</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="W9" t="n">
-        <v>3.530573790338288</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="X9" t="n">
-        <v>3.530573790338288</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.530573790338288</v>
+        <v>648.4405950311615</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3139342451479</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.73598234693722</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C11" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D11" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E11" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F11" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>90.91227510121089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X11" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.530573790338288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C12" t="n">
-        <v>3.530573790338288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="D12" t="n">
-        <v>3.530573790338288</v>
+        <v>641.7054013000538</v>
       </c>
       <c r="E12" t="n">
-        <v>3.530573790338288</v>
+        <v>482.4679462945983</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>335.9333883214833</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>90.91227510121089</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>132.8378388614781</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N12" t="n">
-        <v>132.8378388614781</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>92.68647758675968</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>48.10852568854899</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U12" t="n">
-        <v>3.530573790338288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V12" t="n">
-        <v>3.530573790338288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W12" t="n">
-        <v>3.530573790338288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X12" t="n">
-        <v>3.530573790338288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.530573790338288</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>176.5286895169144</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C14" t="n">
-        <v>176.5286895169144</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D14" t="n">
-        <v>176.5286895169144</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E14" t="n">
-        <v>176.5286895169144</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F14" t="n">
-        <v>137.2644294849704</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G14" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>3.530573790338288</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C15" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="D15" t="n">
-        <v>176.5286895169144</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E15" t="n">
-        <v>137.2644294849704</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F15" t="n">
-        <v>137.2644294849704</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G15" t="n">
-        <v>92.68647758675968</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H15" t="n">
-        <v>48.10852568854899</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>47.22142444577459</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>90.91227510121089</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>134.6031257566472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U15" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V15" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W15" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X15" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y15" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C17" t="n">
-        <v>3.530573790338288</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D17" t="n">
-        <v>3.530573790338288</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E17" t="n">
-        <v>3.530573790338288</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F17" t="n">
-        <v>3.530573790338288</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G17" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>131.9507376187037</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>87.37278572049297</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>42.79483382228227</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.5286895169144</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C18" t="n">
-        <v>176.5286895169144</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D18" t="n">
-        <v>137.2644294849704</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E18" t="n">
-        <v>92.68647758675968</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F18" t="n">
-        <v>48.10852568854899</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G18" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>89.14698820604177</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>132.8378388614781</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>132.8378388614781</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>176.5286895169144</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>176.5286895169144</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>176.5286895169144</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W18" t="n">
-        <v>176.5286895169144</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X18" t="n">
-        <v>176.5286895169144</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y18" t="n">
-        <v>176.5286895169144</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>569.2254314512334</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C20" t="n">
-        <v>569.2254314512334</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D20" t="n">
-        <v>569.2254314512334</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E20" t="n">
-        <v>325.7766548071333</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F20" t="n">
-        <v>325.7766548071333</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G20" t="n">
-        <v>82.32787816303323</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H20" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>812.6742080953335</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>569.2254314512334</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V20" t="n">
-        <v>569.2254314512334</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W20" t="n">
-        <v>569.2254314512334</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X20" t="n">
-        <v>569.2254314512334</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y20" t="n">
-        <v>569.2254314512334</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>864.9613990922262</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>864.9613990922262</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>636.7377808286153</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>401.5856725968725</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W21" t="n">
-        <v>401.5856725968725</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X21" t="n">
-        <v>193.7341723913397</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y21" t="n">
-        <v>193.7341723913397</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5947,13 +5947,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6075,7 +6075,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
         <v>725.4530095217538</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U24" t="n">
-        <v>913.4938269565423</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="V24" t="n">
-        <v>678.3417187247995</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="W24" t="n">
-        <v>434.8929420806995</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
         <v>19.28114311021272</v>
@@ -6184,13 +6184,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>742.8341567219593</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>517.4848137278872</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U26" t="n">
-        <v>274.0360370837871</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V26" t="n">
-        <v>30.58726043968704</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W26" t="n">
-        <v>30.58726043968704</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6312,13 +6312,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6336,19 +6336,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="28">
@@ -6373,10 +6373,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>315.6850394389064</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U29" t="n">
-        <v>559.1338160830064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V29" t="n">
-        <v>559.1338160830064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W29" t="n">
-        <v>315.6850394389064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X29" t="n">
-        <v>315.6850394389064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y29" t="n">
-        <v>315.6850394389064</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>312.0389260854624</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C30" t="n">
-        <v>158.0119685275972</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D30" t="n">
-        <v>158.0119685275972</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6552,13 +6552,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>803.8775054035198</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>803.8775054035198</v>
       </c>
       <c r="U30" t="n">
-        <v>790.6398109613051</v>
+        <v>575.6538871399089</v>
       </c>
       <c r="V30" t="n">
-        <v>555.4877027295624</v>
+        <v>340.5017789081662</v>
       </c>
       <c r="W30" t="n">
-        <v>312.0389260854624</v>
+        <v>340.5017789081662</v>
       </c>
       <c r="X30" t="n">
-        <v>312.0389260854624</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="Y30" t="n">
-        <v>312.0389260854624</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="31">
@@ -6652,7 +6652,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>333.7844730889342</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>577.2332497330343</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U32" t="n">
-        <v>577.2332497330343</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V32" t="n">
-        <v>577.2332497330343</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="W32" t="n">
-        <v>333.7844730889342</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X32" t="n">
-        <v>333.7844730889342</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="Y32" t="n">
-        <v>333.7844730889342</v>
+        <v>82.32787816303323</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6783,46 +6783,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="U33" t="n">
-        <v>913.4938269565423</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247995</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>648.4405950311615</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
         <v>19.28114311021272</v>
@@ -6898,10 +6898,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>348.0024326625565</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>348.0024326625565</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,10 +7023,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>867.6833064557313</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>867.6833064557313</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>639.4596881921204</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>639.4596881921204</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="37">
@@ -7078,10 +7078,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
         <v>19.28114311021272</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C38" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>110.334904905842</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>817.1594080452955</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>588.9357897816847</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>353.783681549942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W39" t="n">
-        <v>110.334904905842</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X39" t="n">
-        <v>110.334904905842</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y39" t="n">
-        <v>110.334904905842</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>710.516763498309</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C41" t="n">
-        <v>467.067986854209</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D41" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E41" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F41" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W41" t="n">
-        <v>710.516763498309</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X41" t="n">
-        <v>710.516763498309</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y41" t="n">
-        <v>710.516763498309</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>307.2569534681098</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>158.3225438068586</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7500,10 +7500,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7512,28 +7512,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="43">
@@ -7546,13 +7546,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
         <v>19.28114311021272</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>42.79483382228227</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>42.79483382228227</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>131.9507376187037</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S44" t="n">
-        <v>131.9507376187037</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T44" t="n">
-        <v>131.9507376187037</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U44" t="n">
-        <v>87.37278572049297</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>42.79483382228227</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W44" t="n">
-        <v>42.79483382228227</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>42.79483382228227</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>42.79483382228227</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>92.68647758675968</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C45" t="n">
-        <v>92.68647758675968</v>
+        <v>678.4104631380844</v>
       </c>
       <c r="D45" t="n">
-        <v>48.10852568854899</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="E45" t="n">
-        <v>48.10852568854899</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F45" t="n">
-        <v>48.10852568854899</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G45" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>47.22142444577459</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M45" t="n">
-        <v>89.14698820604177</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>89.14698820604177</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>137.2644294849704</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W45" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X45" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y45" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8301,19 +8301,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N6" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>184.4830882253185</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O15" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>182.3308283893217</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,13 +9489,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9960,16 +9960,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>241.9453110519923</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10200,7 +10200,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,22 +10431,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,13 +10671,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11148,13 +11148,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O42" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M45" t="n">
-        <v>184.4830882253185</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22559,10 +22559,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>245.0643151220611</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22589,13 +22589,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>105.7369455619211</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22607,13 +22607,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>320.3600505003333</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>342.105766276825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22635,16 +22635,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>106.9441862880172</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>45.26446047218649</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,19 +22671,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>85.56267508295639</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22723,7 +22723,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22747,16 +22747,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.1551389805992</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22796,16 +22796,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>388.380409438123</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>295.3426297365386</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I5" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22838,19 +22838,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,31 +22860,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>103.3128931854102</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>98.47189973158609</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22920,13 +22920,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>148.3810823463216</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22960,10 +22960,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J7" t="n">
-        <v>73.42748985075127</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,10 +22984,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23027,19 +23027,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>191.5849729979769</v>
       </c>
       <c r="F8" t="n">
-        <v>379.9537176646994</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>295.3426297365386</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23100,16 +23100,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23145,19 +23145,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>187.0697646493503</v>
+        <v>146.2815743557202</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23200,10 +23200,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>73.42748985075127</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,10 +23221,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.02987087246579</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1612189979409</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23267,13 +23267,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23303,22 +23303,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>110.9975005095251</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23340,22 +23340,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>25.48987149196427</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>61.28621672101858</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
@@ -23437,10 +23437,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>73.42748985075127</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>368.0044283100869</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>371.1705651359065</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H14" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23577,22 +23577,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>25.48987149196429</v>
       </c>
       <c r="E15" t="n">
-        <v>118.7734630237764</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>68.10327185726787</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>45.26446047218649</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23622,7 +23622,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23662,22 +23662,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G16" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23729,22 +23729,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>343.862224231856</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>164.3376445463982</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23753,7 +23753,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23792,13 +23792,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23814,25 +23814,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>108.5734481330142</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23862,16 +23862,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>65.41665298739503</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>166.4563706509456</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23947,13 +23947,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>208.0054709445994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23984,10 +23984,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>328.2817459595876</v>
       </c>
       <c r="I20" t="n">
-        <v>148.0596218681136</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,19 +24011,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24048,28 +24048,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>26.23646281822218</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,22 +24096,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>73.5783722496119</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,22 +24203,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24227,7 +24227,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24251,10 +24251,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>195.8925415817687</v>
       </c>
     </row>
     <row r="24">
@@ -24294,16 +24294,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>175.8836868124218</v>
+        <v>74.9804992965264</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>332.2668633158008</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,31 +24485,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>358.5380445222895</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,13 +24534,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>23.05282561798197</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24576,19 +24576,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J28" t="n">
         <v>93.35918011667277</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>312.8473232832599</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -24734,16 +24734,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>277.2852801224549</v>
       </c>
       <c r="W29" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>20.22181100602924</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,10 +24771,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24807,22 +24807,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>13.10531749779253</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24892,10 +24892,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24917,10 +24917,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>294.9288839697323</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24932,7 +24932,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>277.0585344134748</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -24968,19 +24968,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,16 +24996,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>159.5453390766226</v>
       </c>
       <c r="U33" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25090,7 +25090,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25160,16 +25160,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,28 +25196,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>264.8211809382518</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,7 +25281,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>76.27306053948199</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25290,16 +25290,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>149.9007559273302</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25445,7 +25445,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25470,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25488,10 +25488,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,28 +25515,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>154.8937928567775</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>115.7915986513122</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,7 +25628,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>113.6687527430239</v>
@@ -25643,13 +25643,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,10 +25670,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25691,10 +25691,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>335.7709603083738</v>
       </c>
     </row>
     <row r="42">
@@ -25707,13 +25707,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>132.229538002218</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25722,7 +25722,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25786,7 +25786,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,7 +25795,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25868,7 +25868,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,7 +25877,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>376.4311200835105</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25910,22 +25910,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>105.7369455619211</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>283.6200860909063</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,31 +25941,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>156.6092913419999</v>
       </c>
       <c r="D45" t="n">
-        <v>103.3128931854102</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,10 +25989,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>61.28621672101858</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>123.8588069792302</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>154.660024479576</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26068,7 +26068,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>174.4524809728662</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>352730.2806797032</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>352730.2806797032</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>352730.2806797033</v>
+        <v>490412.1637477182</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>352730.2806797033</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>352730.2806797032</v>
+        <v>490412.1637477182</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>352730.2806797032</v>
+        <v>490412.1637477182</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490412.1637477179</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490412.1637477181</v>
+        <v>490412.1637477182</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490412.163747718</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>352730.2806797032</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89664.75401339906</v>
+        <v>124620.5043984993</v>
       </c>
       <c r="C2" t="n">
-        <v>89664.75401339904</v>
+        <v>124620.5043984993</v>
       </c>
       <c r="D2" t="n">
-        <v>89664.75401339904</v>
+        <v>124620.5043984993</v>
       </c>
       <c r="E2" t="n">
-        <v>89664.75401339904</v>
+        <v>124620.5043984993</v>
       </c>
       <c r="F2" t="n">
-        <v>89664.75401339907</v>
+        <v>124620.5043984993</v>
       </c>
       <c r="G2" t="n">
-        <v>89664.75401339906</v>
+        <v>124620.5043984993</v>
       </c>
       <c r="H2" t="n">
         <v>124620.5043984993</v>
@@ -26353,7 +26353,7 @@
         <v>124620.5043984993</v>
       </c>
       <c r="P2" t="n">
-        <v>89664.75401339907</v>
+        <v>124620.5043984993</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25706.08308719185</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="C4" t="n">
-        <v>25706.08308719184</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="D4" t="n">
-        <v>25706.08308719184</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="E4" t="n">
-        <v>25706.08308719185</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="F4" t="n">
-        <v>25706.08308719184</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="G4" t="n">
-        <v>25706.08308719185</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="H4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="I4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="J4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="K4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="L4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="M4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="N4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="P4" t="n">
-        <v>25706.08308719184</v>
+        <v>33649.84678425771</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26509,7 +26509,7 @@
         <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12858.12884130589</v>
+        <v>-38080.04268106781</v>
       </c>
       <c r="C6" t="n">
-        <v>27647.8348455501</v>
+        <v>42689.38885047992</v>
       </c>
       <c r="D6" t="n">
-        <v>27647.8348455501</v>
+        <v>42689.3888504799</v>
       </c>
       <c r="E6" t="n">
-        <v>61275.43484555009</v>
+        <v>76316.98885047992</v>
       </c>
       <c r="F6" t="n">
-        <v>61275.43484555012</v>
+        <v>76316.9888504799</v>
       </c>
       <c r="G6" t="n">
-        <v>61275.4348455501</v>
+        <v>76316.98885047992</v>
       </c>
       <c r="H6" t="n">
-        <v>20808.05632899112</v>
+        <v>76316.9888504799</v>
       </c>
       <c r="I6" t="n">
-        <v>73928.62329931614</v>
+        <v>76316.98885047992</v>
       </c>
       <c r="J6" t="n">
-        <v>62381.70518932525</v>
+        <v>13257.04625137367</v>
       </c>
       <c r="K6" t="n">
-        <v>73928.62329931617</v>
+        <v>76316.9888504799</v>
       </c>
       <c r="L6" t="n">
-        <v>73928.62329931617</v>
+        <v>76316.98885047992</v>
       </c>
       <c r="M6" t="n">
-        <v>73928.62329931614</v>
+        <v>76316.98885047992</v>
       </c>
       <c r="N6" t="n">
-        <v>73928.62329931615</v>
+        <v>76316.9888504799</v>
       </c>
       <c r="O6" t="n">
-        <v>73928.62329931614</v>
+        <v>76316.9888504799</v>
       </c>
       <c r="P6" t="n">
-        <v>61275.43484555012</v>
+        <v>76316.98885047989</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26829,7 +26829,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N6" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>42.34905430330019</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>42.34905430330019</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36209,13 +36209,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36680,16 +36680,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>99.81127712997396</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36920,7 +36920,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,13 +37391,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37868,13 +37868,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O42" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O44" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M45" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
